--- a/StreamLine Web Automator/config/config.xlsx
+++ b/StreamLine Web Automator/config/config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\StreamLineQA-Automation-Test\StreamLine Web Automator\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B37DD52-24B7-450B-B242-A8248A6379B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7359E45E-C7EF-4F74-8648-B148EB7EEEEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -114,6 +114,19 @@
             <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
+          <t>Specify whether or not you want to enable our test management features. This includes test data logged to each of the test files and a granular report in the output file.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{50BB5DD7-8273-423D-A094-4F67CC834F44}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
           <t>Specify whether or not you want to run test files in parallel ('yes' or 'no').</t>
         </r>
       </text>
@@ -159,7 +172,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>HomeURL</t>
   </si>
@@ -204,6 +217,9 @@
   </si>
   <si>
     <t>Run Parallel</t>
+  </si>
+  <si>
+    <t>Test Management</t>
   </si>
 </sst>
 </file>
@@ -498,10 +514,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -564,9 +580,17 @@
     </row>
     <row r="4" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -578,7 +602,7 @@
     <dataValidation type="list" allowBlank="1" sqref="G2" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Chrome,Safari,Firefox,Internet Explorer,Edge,Headless"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="B3:B4" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" sqref="B3:B5" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"yes,no"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="B2" xr:uid="{00000000-0002-0000-0000-000003000000}">

--- a/StreamLine Web Automator/config/config.xlsx
+++ b/StreamLine Web Automator/config/config.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\StreamLineQA-Automation-Test\StreamLine Web Automator\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7359E45E-C7EF-4F74-8648-B148EB7EEEEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCD617AC-CD2F-45AC-AA18-4ECAD03A73A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="1" r:id="rId1"/>
-    <sheet name="license key" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -135,44 +134,8 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author/>
-  </authors>
-  <commentList>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Enter your email address here. This is mandatory even for the trial version</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Enter your license key here. You can leave this blank if you're on the trial version</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
   <si>
     <t>HomeURL</t>
   </si>
@@ -190,12 +153,6 @@
   </si>
   <si>
     <t>Gather Data</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>License Key</t>
   </si>
   <si>
     <t>yes</t>
@@ -285,12 +242,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -517,7 +473,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -528,70 +484,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
-        <v>15</v>
+      <c r="A4" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>14</v>
+      <c r="A5" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -615,36 +571,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="23.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="4"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
 </file>